--- a/Nash_Mirror_Trees.xlsx
+++ b/Nash_Mirror_Trees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdc/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284DC7B2-9D66-9545-BCB7-2AC4C88E1EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2C4563-7131-1C4F-8E28-203B4C9B05BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37060" yWindow="-5000" windowWidth="39600" windowHeight="25700" xr2:uid="{7511BCC9-046C-2241-848E-858B9E522A48}"/>
+    <workbookView xWindow="43080" yWindow="-4540" windowWidth="31020" windowHeight="17500" xr2:uid="{7511BCC9-046C-2241-848E-858B9E522A48}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -7724,7 +7724,7 @@
   <dimension ref="B1:AE31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
